--- a/Bilan financier.xlsx
+++ b/Bilan financier.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
